--- a/fuentes/contenidos/grado07/guion09/SolicitudGrafica_MA_07_09_CO_REC30.xlsx
+++ b/fuentes/contenidos/grado07/guion09/SolicitudGrafica_MA_07_09_CO_REC30.xlsx
@@ -2565,7 +2565,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J46" sqref="J46:J49"/>
+      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
